--- a/results/mp/deberta/corona/confidence/126/stop-words-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-0.2/avg_0.002_scores.xlsx
@@ -127,18 +127,18 @@
     <t>positive</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
@@ -160,10 +160,10 @@
     <t>hope</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>credit</t>
   </si>
   <si>
     <t>share</t>
@@ -1555,25 +1555,25 @@
         <v>37</v>
       </c>
       <c r="K25">
-        <v>0.6796536796536796</v>
+        <v>0.67</v>
       </c>
       <c r="L25">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="M25">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="N25">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="O25">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>74</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1581,25 +1581,25 @@
         <v>38</v>
       </c>
       <c r="K26">
-        <v>0.67</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L26">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="M26">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="N26">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1607,13 +1607,13 @@
         <v>39</v>
       </c>
       <c r="K27">
-        <v>0.6666666666666666</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L27">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1633,13 +1633,13 @@
         <v>40</v>
       </c>
       <c r="K28">
-        <v>0.6595744680851063</v>
+        <v>0.6569037656903766</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1841,25 +1841,25 @@
         <v>48</v>
       </c>
       <c r="K36">
-        <v>0.5487804878048781</v>
+        <v>0.53125</v>
       </c>
       <c r="L36">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>192</v>
+        <v>19</v>
       </c>
       <c r="N36">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="O36">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1867,25 +1867,25 @@
         <v>49</v>
       </c>
       <c r="K37">
-        <v>0.53125</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="N37">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="10:17">
